--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\SPS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EB4906-9260-445F-9E15-B0A8749783BB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2144D-7397-47B5-821E-AEFCC59FF17C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,2,1820,850,2170,920)));</t>
   </si>
   <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(9,6,2170,850,2600,1080)));</t>
-  </si>
-  <si>
     <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(11,3,1820,130,1950,500)));</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(14,8,580,0,1010,270)));</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(9,7,2170,850,2600,1080)));</t>
   </si>
 </sst>
 </file>
@@ -170,10 +170,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,7 +492,7 @@
   <dimension ref="A1:AI38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -522,14 +522,14 @@
       <c r="J1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
@@ -728,7 +728,7 @@
       <c r="AG3" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" s="2" t="str">
+      <c r="AH3" s="1" t="str">
         <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(1,5,0,520,440,690)));</v>
       </c>
@@ -851,7 +851,7 @@
       <c r="AG4" t="s">
         <v>14</v>
       </c>
-      <c r="AH4" s="2" t="str">
+      <c r="AH4" s="1" t="str">
         <f t="shared" ref="AH4:AH19" si="18">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(2,7,0,690,440,920)));</v>
       </c>
@@ -975,7 +975,7 @@
       <c r="AG5" t="s">
         <v>14</v>
       </c>
-      <c r="AH5" s="2" t="str">
+      <c r="AH5" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(3,7,440,690,920,920)));</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="AG6" t="s">
         <v>14</v>
       </c>
-      <c r="AH6" s="2" t="str">
+      <c r="AH6" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(4,5,920,690,1260,920)));</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="AG7" t="s">
         <v>14</v>
       </c>
-      <c r="AH7" s="2" t="str">
+      <c r="AH7" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(5,11,920,920,1260,1440)));</v>
       </c>
@@ -1346,7 +1346,7 @@
       <c r="AG8" t="s">
         <v>14</v>
       </c>
-      <c r="AH8" s="2" t="str">
+      <c r="AH8" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(6,8,1260,690,1820,920)));</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="AG9" t="s">
         <v>14</v>
       </c>
-      <c r="AH9" s="2" t="str">
+      <c r="AH9" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(7,11,1260,920,1600,1440)));</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="AG10" t="s">
         <v>14</v>
       </c>
-      <c r="AH10" s="2" t="str">
+      <c r="AH10" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,2,1820,850,2170,920)));</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="AG11" t="s">
         <v>14</v>
       </c>
-      <c r="AH11" s="2" t="str">
+      <c r="AH11" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,7,1830,920,2170,1230)));</v>
       </c>
@@ -1836,7 +1836,7 @@
       <c r="AG12" t="s">
         <v>14</v>
       </c>
-      <c r="AH12" s="2" t="str">
+      <c r="AH12" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(9,7,2170,850,2600,1080)));</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="AG13" t="s">
         <v>14</v>
       </c>
-      <c r="AH13" s="2" t="str">
+      <c r="AH13" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(10,8,1820,500,2170,850)));</v>
       </c>
@@ -2079,7 +2079,7 @@
       <c r="AG14" t="s">
         <v>14</v>
       </c>
-      <c r="AH14" s="2" t="str">
+      <c r="AH14" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(11,3,1820,130,1950,500)));</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="AG15" t="s">
         <v>14</v>
       </c>
-      <c r="AH15" s="2" t="str">
+      <c r="AH15" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(12,5,1380,0,1950,130)));</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="AG16" t="s">
         <v>14</v>
       </c>
-      <c r="AH16" s="2" t="str">
+      <c r="AH16" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(13,7,1010,0,1380,270)));</v>
       </c>
@@ -2441,7 +2441,7 @@
       <c r="AG17" t="s">
         <v>14</v>
       </c>
-      <c r="AH17" s="2" t="str">
+      <c r="AH17" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(14,8,580,0,1010,270)));</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="AG18" t="s">
         <v>14</v>
       </c>
-      <c r="AH18" s="2" t="str">
+      <c r="AH18" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(15,5,0,0,580,130)));</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="AG19" t="s">
         <v>14</v>
       </c>
-      <c r="AH19" s="2" t="str">
+      <c r="AH19" s="1" t="str">
         <f t="shared" si="18"/>
         <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(15,2,440,130,580,320)));</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>29</v>
       </c>
       <c r="AI29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
@@ -2796,10 +2796,10 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AI31" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
@@ -2812,10 +2812,10 @@
     </row>
     <row r="33" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="34:35" x14ac:dyDescent="0.2">
@@ -2828,18 +2828,18 @@
     </row>
     <row r="35" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AI35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AI36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="34:35" x14ac:dyDescent="0.2">

--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB2144D-7397-47B5-821E-AEFCC59FF17C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3479FB0-C81C-4DBC-9D69-80F7FF11F224}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,73 +63,73 @@
     <t>Total Particles</t>
   </si>
   <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(2,3,4,5,56)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(</t>
-  </si>
-  <si>
-    <t>)));</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(1,5,0,520,440,690)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(3,7,440,690,920,920)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(4,5,920,690,1260,920)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(5,11,920,920,1260,1440)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(7,11,1260,920,1600,1440)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,7,1830,920,2170,1230)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(10,8,1820,500,2170,850)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(12,5,1380,0,1950,130)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(15,5,0,0,580,130)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(15,2,440,130,580,320)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(15,5,0,0,580,130,2,440,130,580,320)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(2,7,0,690,440,920)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(6,8,1260,690,1820,920)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,2,1820,850,2170,920)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(11,3,1820,130,1950,500)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,2,1820,850,2170,920,7,1830,920,2170,1230)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(13,7,1010,0,1380,270)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(14,8,580,0,1010,270)));</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(9,7,2170,850,2600,1080)));</t>
+    <t>this.RoomParticles.add(new int[] {1,5,0,520,440,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {</t>
+  </si>
+  <si>
+    <t>});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {1,2283,0,520,440,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {2,3089,0,690,440,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {3,3369,440,690,920,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {4,2387,920,690,1260,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {5,5396,920,920,1260,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {6,3931,1260,690,1820,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {7,5396,1260,920,1600,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,748,1820,850,2170,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,3217,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {9,3019,2170,850,2600,1080});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {10,3739,1820,500,2170,850});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {11,1468,1820,130,1950,500});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {12,2262,1380,0,1950,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {13,3049,1010,0,1380,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {14,3543,580,0,1010,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,2301,0,0,580,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,812,440,130,580,320});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,748,1820,850,2170,920,3217,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,2301,0,0,580,130,812,440,130,580,320});</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI22:AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -575,37 +575,37 @@
         <v>8</v>
       </c>
       <c r="U2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="V2" t="s">
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
         <v>8</v>
       </c>
       <c r="Y2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="s">
         <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="s">
         <v>4</v>
       </c>
       <c r="AC2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="s">
         <v>3</v>
       </c>
       <c r="AE2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="s">
         <v>4</v>
@@ -672,14 +672,14 @@
       </c>
       <c r="R3">
         <f>Q3/$Q$21</f>
-        <v>4.5651510527921877</v>
+        <v>2282.5755263960937</v>
       </c>
       <c r="S3">
         <f>ROUNDUP(R3,0)</f>
-        <v>5</v>
+        <v>2283</v>
       </c>
       <c r="U3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V3">
         <f>J3</f>
@@ -691,7 +691,7 @@
       </c>
       <c r="X3">
         <f>S3</f>
-        <v>5</v>
+        <v>2283</v>
       </c>
       <c r="Y3" t="str">
         <f>Y2</f>
@@ -726,11 +726,11 @@
         <v>690</v>
       </c>
       <c r="AG3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH3" s="1" t="str">
         <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(1,5,0,520,440,690)));</v>
+        <v>this.RoomParticles.add(new int[] {1,2283,0,520,440,690});</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -795,14 +795,14 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R19" si="5">Q4/$Q$21</f>
-        <v>6.1763808361306074</v>
+        <v>3088.1904180653032</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S19" si="6">ROUNDUP(R4,0)</f>
-        <v>7</v>
+        <v>3089</v>
       </c>
       <c r="U4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V4">
         <f t="shared" ref="V4:V19" si="7">J4</f>
@@ -814,7 +814,7 @@
       </c>
       <c r="X4">
         <f t="shared" ref="X4:X19" si="9">S4</f>
-        <v>7</v>
+        <v>3089</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ref="Y4:Y19" si="10">Y3</f>
@@ -849,11 +849,11 @@
         <v>920</v>
       </c>
       <c r="AG4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH4" s="1" t="str">
         <f t="shared" ref="AH4:AH19" si="18">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(2,7,0,690,440,920)));</v>
+        <v>this.RoomParticles.add(new int[] {2,3089,0,690,440,920});</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -919,14 +919,14 @@
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>6.7378700030515715</v>
+        <v>3368.9350015257855</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3369</v>
       </c>
       <c r="U5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V5">
         <f t="shared" si="7"/>
@@ -938,7 +938,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>3369</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="10"/>
@@ -973,11 +973,11 @@
         <v>920</v>
       </c>
       <c r="AG5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(3,7,440,690,920,920)));</v>
+        <v>this.RoomParticles.add(new int[] {3,3369,440,690,920,920});</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -1043,14 +1043,14 @@
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>4.7726579188281963</v>
+        <v>2386.3289594140979</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2387</v>
       </c>
       <c r="U6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V6">
         <f t="shared" si="7"/>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2387</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="10"/>
@@ -1097,11 +1097,11 @@
         <v>920</v>
       </c>
       <c r="AG6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(4,5,920,690,1260,920)));</v>
+        <v>this.RoomParticles.add(new int[] {4,2387,920,690,1260,920});</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -1167,14 +1167,14 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>10.790357033872445</v>
+        <v>5395.178516936222</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>5396</v>
       </c>
       <c r="U7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>5396</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="10"/>
@@ -1221,11 +1221,11 @@
         <v>1440</v>
       </c>
       <c r="AG7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(5,11,920,920,1260,1440)));</v>
+        <v>this.RoomParticles.add(new int[] {5,5396,920,920,1260,1440});</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -1290,14 +1290,14 @@
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>7.8608483368935005</v>
+        <v>3930.4241684467497</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>3931</v>
       </c>
       <c r="U8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>3931</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="10"/>
@@ -1344,11 +1344,11 @@
         <v>920</v>
       </c>
       <c r="AG8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(6,8,1260,690,1820,920)));</v>
+        <v>this.RoomParticles.add(new int[] {6,3931,1260,690,1820,920});</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -1413,14 +1413,14 @@
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>10.790357033872445</v>
+        <v>5395.178516936222</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>5396</v>
       </c>
       <c r="U9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>5396</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="10"/>
@@ -1467,11 +1467,11 @@
         <v>1440</v>
       </c>
       <c r="AG9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(7,11,1260,920,1600,1440)));</v>
+        <v>this.RoomParticles.add(new int[] {7,5396,1260,920,1600,1440});</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1536,14 +1536,14 @@
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>1.4952700640830028</v>
+        <v>747.63503204150129</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="U10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V10">
         <f t="shared" si="7"/>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>748</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="10"/>
@@ -1590,11 +1590,11 @@
         <v>920</v>
       </c>
       <c r="AG10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,2,1820,850,2170,920)));</v>
+        <v>this.RoomParticles.add(new int[] {8,748,1820,850,2170,920});</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>6.4327128471162647</v>
+        <v>3216.3564235581321</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3217</v>
       </c>
       <c r="U11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V11">
         <f t="shared" si="7"/>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>3217</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="10"/>
@@ -1713,11 +1713,11 @@
         <v>1230</v>
       </c>
       <c r="AG11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(8,7,1830,920,2170,1230)));</v>
+        <v>this.RoomParticles.add(new int[] {8,3217,1830,920,2170,1230});</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -1780,14 +1780,14 @@
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>6.0360085444003664</v>
+        <v>3018.0042722001826</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3019</v>
       </c>
       <c r="U12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V12">
         <f t="shared" si="7"/>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>3019</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="10"/>
@@ -1834,11 +1834,11 @@
         <v>1080</v>
       </c>
       <c r="AG12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(9,7,2170,850,2600,1080)));</v>
+        <v>this.RoomParticles.add(new int[] {9,3019,2170,850,2600,1080});</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1902,14 +1902,14 @@
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>7.4763503204150137</v>
+        <v>3738.1751602075065</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>3739</v>
       </c>
       <c r="U13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V13">
         <f t="shared" si="7"/>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>3739</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="10"/>
@@ -1956,11 +1956,11 @@
         <v>850</v>
       </c>
       <c r="AG13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(10,8,1820,500,2170,850)));</v>
+        <v>this.RoomParticles.add(new int[] {10,3739,1820,500,2170,850});</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2023,14 +2023,14 @@
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>2.9356118400976503</v>
+        <v>1467.8059200488251</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>1468</v>
       </c>
       <c r="U14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V14">
         <f t="shared" si="7"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>1468</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="10"/>
@@ -2077,11 +2077,11 @@
         <v>500</v>
       </c>
       <c r="AG14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(11,3,1820,130,1950,500)));</v>
+        <v>this.RoomParticles.add(new int[] {11,1468,1820,130,1950,500});</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -2143,14 +2143,14 @@
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>4.5224290509612448</v>
+        <v>2261.2145254806223</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2262</v>
       </c>
       <c r="U15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V15">
         <f t="shared" si="7"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2262</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="10"/>
@@ -2197,11 +2197,11 @@
         <v>130</v>
       </c>
       <c r="AG15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(12,5,1380,0,1950,130)));</v>
+        <v>this.RoomParticles.add(new int[] {12,2262,1380,0,1950,130});</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2264,14 +2264,14 @@
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>6.0970399755874274</v>
+        <v>3048.5199877937134</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>3049</v>
       </c>
       <c r="U16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V16">
         <f t="shared" si="7"/>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>3049</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="10"/>
@@ -2318,11 +2318,11 @@
         <v>270</v>
       </c>
       <c r="AG16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(13,7,1010,0,1380,270)));</v>
+        <v>this.RoomParticles.add(new int[] {13,3049,1010,0,1380,270});</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -2385,14 +2385,14 @@
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>7.0857491608178211</v>
+        <v>3542.8745804089103</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>3543</v>
       </c>
       <c r="U17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V17">
         <f t="shared" si="7"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>3543</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="10"/>
@@ -2439,11 +2439,11 @@
         <v>270</v>
       </c>
       <c r="AG17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(14,8,580,0,1010,270)));</v>
+        <v>this.RoomParticles.add(new int[] {14,3543,580,0,1010,270});</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2505,14 +2505,14 @@
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>4.6017699115044248</v>
+        <v>2300.8849557522121</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>2301</v>
       </c>
       <c r="U18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V18">
         <f t="shared" si="7"/>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>2301</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="10"/>
@@ -2559,11 +2559,11 @@
         <v>130</v>
       </c>
       <c r="AG18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(15,5,0,0,580,130)));</v>
+        <v>this.RoomParticles.add(new int[] {15,2301,0,0,580,130});</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2625,14 +2625,14 @@
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>1.6234360695758316</v>
+        <v>811.71803478791571</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>812</v>
       </c>
       <c r="U19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V19">
         <f t="shared" si="7"/>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>812</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="10"/>
@@ -2679,11 +2679,11 @@
         <v>320</v>
       </c>
       <c r="AG19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new ArrayList&lt;Integer&gt;(Arrays.asList(15,2,440,130,580,320)));</v>
+        <v>this.RoomParticles.add(new int[] {15,812,440,130,580,320});</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="Q21">
         <f>Q20/Q22</f>
-        <v>16385</v>
+        <v>32.770000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -2717,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>50000</v>
       </c>
       <c r="AH22" t="s">
         <v>16</v>
@@ -2732,127 +2732,127 @@
       </c>
       <c r="S23">
         <f>SUM(S3:S19)</f>
-        <v>108</v>
+        <v>50009</v>
       </c>
       <c r="AH23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH29" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH31" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH37" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AI37" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH38" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3479FB0-C81C-4DBC-9D69-80F7FF11F224}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22B5A9-F14E-40DD-A268-A29398103648}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,61 +75,61 @@
     <t>});</t>
   </si>
   <si>
-    <t>this.RoomParticles.add(new int[] {1,2283,0,520,440,690});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {2,3089,0,690,440,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {3,3369,440,690,920,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {4,2387,920,690,1260,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {5,5396,920,920,1260,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {6,3931,1260,690,1820,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {7,5396,1260,920,1600,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,748,1820,850,2170,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,3217,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {9,3019,2170,850,2600,1080});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {10,3739,1820,500,2170,850});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {11,1468,1820,130,1950,500});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {12,2262,1380,0,1950,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {13,3049,1010,0,1380,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {14,3543,580,0,1010,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,2301,0,0,580,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,812,440,130,580,320});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,748,1820,850,2170,920,3217,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,2301,0,0,580,130,812,440,130,580,320});</t>
+    <t>this.RoomParticles.add(new int[] {1,457,0,520,440,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {2,618,0,690,440,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {3,674,440,690,920,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {4,478,920,690,1260,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {5,1080,920,920,1260,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {6,787,1260,690,1820,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {7,1080,1260,920,1600,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,150,1820,850,2170,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,644,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {9,604,2170,850,2600,1080});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {10,748,1820,500,2170,850});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {11,294,1820,130,1950,500});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {12,453,1380,0,1950,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {13,610,1010,0,1380,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {14,709,580,0,1010,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,461,0,0,580,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,163,440,130,580,320});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,150,1820,850,2170,920,644,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,461,0,0,580,130,163,440,130,580,320});</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI37" sqref="AI22:AI37"/>
     </sheetView>
   </sheetViews>
@@ -672,11 +672,11 @@
       </c>
       <c r="R3">
         <f>Q3/$Q$21</f>
-        <v>2282.5755263960937</v>
+        <v>456.5151052792188</v>
       </c>
       <c r="S3">
         <f>ROUNDUP(R3,0)</f>
-        <v>2283</v>
+        <v>457</v>
       </c>
       <c r="U3" t="s">
         <v>14</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="X3">
         <f>S3</f>
-        <v>2283</v>
+        <v>457</v>
       </c>
       <c r="Y3" t="str">
         <f>Y2</f>
@@ -730,7 +730,7 @@
       </c>
       <c r="AH3" s="1" t="str">
         <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
-        <v>this.RoomParticles.add(new int[] {1,2283,0,520,440,690});</v>
+        <v>this.RoomParticles.add(new int[] {1,457,0,520,440,690});</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -795,11 +795,11 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R19" si="5">Q4/$Q$21</f>
-        <v>3088.1904180653032</v>
+        <v>617.63808361306076</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S19" si="6">ROUNDUP(R4,0)</f>
-        <v>3089</v>
+        <v>618</v>
       </c>
       <c r="U4" t="s">
         <v>14</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="X4">
         <f t="shared" ref="X4:X19" si="9">S4</f>
-        <v>3089</v>
+        <v>618</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ref="Y4:Y19" si="10">Y3</f>
@@ -853,7 +853,7 @@
       </c>
       <c r="AH4" s="1" t="str">
         <f t="shared" ref="AH4:AH19" si="18">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
-        <v>this.RoomParticles.add(new int[] {2,3089,0,690,440,920});</v>
+        <v>this.RoomParticles.add(new int[] {2,618,0,690,440,920});</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -919,11 +919,11 @@
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>3368.9350015257855</v>
+        <v>673.78700030515722</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>3369</v>
+        <v>674</v>
       </c>
       <c r="U5" t="s">
         <v>14</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="9"/>
-        <v>3369</v>
+        <v>674</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="10"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="AH5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {3,3369,440,690,920,920});</v>
+        <v>this.RoomParticles.add(new int[] {3,674,440,690,920,920});</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>2386.3289594140979</v>
+        <v>477.26579188281966</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>2387</v>
+        <v>478</v>
       </c>
       <c r="U6" t="s">
         <v>14</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="9"/>
-        <v>2387</v>
+        <v>478</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="10"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AH6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {4,2387,920,690,1260,920});</v>
+        <v>this.RoomParticles.add(new int[] {4,478,920,690,1260,920});</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>5395.178516936222</v>
+        <v>1079.0357033872444</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>5396</v>
+        <v>1080</v>
       </c>
       <c r="U7" t="s">
         <v>14</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="9"/>
-        <v>5396</v>
+        <v>1080</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="10"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="AH7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {5,5396,920,920,1260,1440});</v>
+        <v>this.RoomParticles.add(new int[] {5,1080,920,920,1260,1440});</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>3930.4241684467497</v>
+        <v>786.08483368935003</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>3931</v>
+        <v>787</v>
       </c>
       <c r="U8" t="s">
         <v>14</v>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="9"/>
-        <v>3931</v>
+        <v>787</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="10"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="AH8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {6,3931,1260,690,1820,920});</v>
+        <v>this.RoomParticles.add(new int[] {6,787,1260,690,1820,920});</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>5395.178516936222</v>
+        <v>1079.0357033872444</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>5396</v>
+        <v>1080</v>
       </c>
       <c r="U9" t="s">
         <v>14</v>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="9"/>
-        <v>5396</v>
+        <v>1080</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="10"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="AH9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {7,5396,1260,920,1600,1440});</v>
+        <v>this.RoomParticles.add(new int[] {7,1080,1260,920,1600,1440});</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1536,11 +1536,11 @@
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>747.63503204150129</v>
+        <v>149.52700640830028</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>748</v>
+        <v>150</v>
       </c>
       <c r="U10" t="s">
         <v>14</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="9"/>
-        <v>748</v>
+        <v>150</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="10"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AH10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,748,1820,850,2170,920});</v>
+        <v>this.RoomParticles.add(new int[] {8,150,1820,850,2170,920});</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -1659,11 +1659,11 @@
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>3216.3564235581321</v>
+        <v>643.27128471162655</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>3217</v>
+        <v>644</v>
       </c>
       <c r="U11" t="s">
         <v>14</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>3217</v>
+        <v>644</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="10"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="AH11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,3217,1830,920,2170,1230});</v>
+        <v>this.RoomParticles.add(new int[] {8,644,1830,920,2170,1230});</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -1780,11 +1780,11 @@
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>3018.0042722001826</v>
+        <v>603.60085444003664</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>3019</v>
+        <v>604</v>
       </c>
       <c r="U12" t="s">
         <v>14</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="9"/>
-        <v>3019</v>
+        <v>604</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="10"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="AH12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {9,3019,2170,850,2600,1080});</v>
+        <v>this.RoomParticles.add(new int[] {9,604,2170,850,2600,1080});</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>3738.1751602075065</v>
+        <v>747.6350320415014</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>3739</v>
+        <v>748</v>
       </c>
       <c r="U13" t="s">
         <v>14</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="9"/>
-        <v>3739</v>
+        <v>748</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="10"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="AH13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {10,3739,1820,500,2170,850});</v>
+        <v>this.RoomParticles.add(new int[] {10,748,1820,500,2170,850});</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>1467.8059200488251</v>
+        <v>293.56118400976504</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>1468</v>
+        <v>294</v>
       </c>
       <c r="U14" t="s">
         <v>14</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="9"/>
-        <v>1468</v>
+        <v>294</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="10"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AH14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {11,1468,1820,130,1950,500});</v>
+        <v>this.RoomParticles.add(new int[] {11,294,1820,130,1950,500});</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -2143,11 +2143,11 @@
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>2261.2145254806223</v>
+        <v>452.2429050961245</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>2262</v>
+        <v>453</v>
       </c>
       <c r="U15" t="s">
         <v>14</v>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
-        <v>2262</v>
+        <v>453</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="10"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AH15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {12,2262,1380,0,1950,130});</v>
+        <v>this.RoomParticles.add(new int[] {12,453,1380,0,1950,130});</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2264,11 +2264,11 @@
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>3048.5199877937134</v>
+        <v>609.7039975587428</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>3049</v>
+        <v>610</v>
       </c>
       <c r="U16" t="s">
         <v>14</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="9"/>
-        <v>3049</v>
+        <v>610</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="10"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="AH16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {13,3049,1010,0,1380,270});</v>
+        <v>this.RoomParticles.add(new int[] {13,610,1010,0,1380,270});</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>3542.8745804089103</v>
+        <v>708.57491608178213</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>3543</v>
+        <v>709</v>
       </c>
       <c r="U17" t="s">
         <v>14</v>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="9"/>
-        <v>3543</v>
+        <v>709</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="10"/>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="AH17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {14,3543,580,0,1010,270});</v>
+        <v>this.RoomParticles.add(new int[] {14,709,580,0,1010,270});</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>2300.8849557522121</v>
+        <v>460.17699115044252</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>2301</v>
+        <v>461</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
-        <v>2301</v>
+        <v>461</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="10"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="AH18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,2301,0,0,580,130});</v>
+        <v>this.RoomParticles.add(new int[] {15,461,0,0,580,130});</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2625,11 +2625,11 @@
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>811.71803478791571</v>
+        <v>162.34360695758315</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>812</v>
+        <v>163</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="9"/>
-        <v>812</v>
+        <v>163</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="10"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="AH19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,812,440,130,580,320});</v>
+        <v>this.RoomParticles.add(new int[] {15,163,440,130,580,320});</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="Q21">
         <f>Q20/Q22</f>
-        <v>32.770000000000003</v>
+        <v>163.85</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -2717,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="AH22" t="s">
         <v>16</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S23">
         <f>SUM(S3:S19)</f>
-        <v>50009</v>
+        <v>10010</v>
       </c>
       <c r="AH23" t="s">
         <v>17</v>

--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD22B5A9-F14E-40DD-A268-A29398103648}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DDBF5-4A32-472F-A778-6D723E1A44B8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,61 +75,61 @@
     <t>});</t>
   </si>
   <si>
-    <t>this.RoomParticles.add(new int[] {1,457,0,520,440,690});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {2,618,0,690,440,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {3,674,440,690,920,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {4,478,920,690,1260,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {5,1080,920,920,1260,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {6,787,1260,690,1820,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {7,1080,1260,920,1600,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,150,1820,850,2170,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,644,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {9,604,2170,850,2600,1080});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {10,748,1820,500,2170,850});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {11,294,1820,130,1950,500});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {12,453,1380,0,1950,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {13,610,1010,0,1380,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {14,709,580,0,1010,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,461,0,0,580,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,163,440,130,580,320});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,150,1820,850,2170,920,644,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,461,0,0,580,130,163,440,130,580,320});</t>
+    <t>this.RoomParticles.add(new int[] {1,92,0,520,440,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {2,124,0,690,440,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {3,135,440,690,920,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {4,96,920,690,1260,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {5,216,920,920,1260,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {6,158,1260,690,1820,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {7,216,1260,920,1600,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,30,1820,850,2170,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,129,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {9,121,2170,850,2600,1080});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {10,150,1820,500,2170,850});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {11,59,1820,130,1950,500});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {12,91,1380,0,1950,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {13,122,1010,0,1380,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {14,142,580,0,1010,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,93,0,0,580,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,33,440,130,580,320});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,30,1820,850,2170,920,129,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,93,0,0,580,130,33,440,130,580,320});</t>
   </si>
 </sst>
 </file>
@@ -491,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI37" sqref="AI22:AI37"/>
     </sheetView>
   </sheetViews>
@@ -672,11 +672,11 @@
       </c>
       <c r="R3">
         <f>Q3/$Q$21</f>
-        <v>456.5151052792188</v>
+        <v>91.303021055843757</v>
       </c>
       <c r="S3">
         <f>ROUNDUP(R3,0)</f>
-        <v>457</v>
+        <v>92</v>
       </c>
       <c r="U3" t="s">
         <v>14</v>
@@ -691,7 +691,7 @@
       </c>
       <c r="X3">
         <f>S3</f>
-        <v>457</v>
+        <v>92</v>
       </c>
       <c r="Y3" t="str">
         <f>Y2</f>
@@ -730,7 +730,7 @@
       </c>
       <c r="AH3" s="1" t="str">
         <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
-        <v>this.RoomParticles.add(new int[] {1,457,0,520,440,690});</v>
+        <v>this.RoomParticles.add(new int[] {1,92,0,520,440,690});</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -795,11 +795,11 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R19" si="5">Q4/$Q$21</f>
-        <v>617.63808361306076</v>
+        <v>123.52761672261215</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S19" si="6">ROUNDUP(R4,0)</f>
-        <v>618</v>
+        <v>124</v>
       </c>
       <c r="U4" t="s">
         <v>14</v>
@@ -814,7 +814,7 @@
       </c>
       <c r="X4">
         <f t="shared" ref="X4:X19" si="9">S4</f>
-        <v>618</v>
+        <v>124</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ref="Y4:Y19" si="10">Y3</f>
@@ -853,7 +853,7 @@
       </c>
       <c r="AH4" s="1" t="str">
         <f t="shared" ref="AH4:AH19" si="18">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
-        <v>this.RoomParticles.add(new int[] {2,618,0,690,440,920});</v>
+        <v>this.RoomParticles.add(new int[] {2,124,0,690,440,920});</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -919,11 +919,11 @@
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>673.78700030515722</v>
+        <v>134.75740006103143</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>674</v>
+        <v>135</v>
       </c>
       <c r="U5" t="s">
         <v>14</v>
@@ -938,7 +938,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="9"/>
-        <v>674</v>
+        <v>135</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="10"/>
@@ -977,7 +977,7 @@
       </c>
       <c r="AH5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {3,674,440,690,920,920});</v>
+        <v>this.RoomParticles.add(new int[] {3,135,440,690,920,920});</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -1043,11 +1043,11 @@
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>477.26579188281966</v>
+        <v>95.453158376563934</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>478</v>
+        <v>96</v>
       </c>
       <c r="U6" t="s">
         <v>14</v>
@@ -1062,7 +1062,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="9"/>
-        <v>478</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="10"/>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="AH6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {4,478,920,690,1260,920});</v>
+        <v>this.RoomParticles.add(new int[] {4,96,920,690,1260,920});</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>1079.0357033872444</v>
+        <v>215.8071406774489</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>1080</v>
+        <v>216</v>
       </c>
       <c r="U7" t="s">
         <v>14</v>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="9"/>
-        <v>1080</v>
+        <v>216</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="10"/>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="AH7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {5,1080,920,920,1260,1440});</v>
+        <v>this.RoomParticles.add(new int[] {5,216,920,920,1260,1440});</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>786.08483368935003</v>
+        <v>157.21696673787</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>787</v>
+        <v>158</v>
       </c>
       <c r="U8" t="s">
         <v>14</v>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="9"/>
-        <v>787</v>
+        <v>158</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="10"/>
@@ -1348,7 +1348,7 @@
       </c>
       <c r="AH8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {6,787,1260,690,1820,920});</v>
+        <v>this.RoomParticles.add(new int[] {6,158,1260,690,1820,920});</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>1079.0357033872444</v>
+        <v>215.8071406774489</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>1080</v>
+        <v>216</v>
       </c>
       <c r="U9" t="s">
         <v>14</v>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="9"/>
-        <v>1080</v>
+        <v>216</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="10"/>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="AH9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {7,1080,1260,920,1600,1440});</v>
+        <v>this.RoomParticles.add(new int[] {7,216,1260,920,1600,1440});</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1536,11 +1536,11 @@
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>149.52700640830028</v>
+        <v>29.905401281660055</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="U10" t="s">
         <v>14</v>
@@ -1555,7 +1555,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="10"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="AH10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,150,1820,850,2170,920});</v>
+        <v>this.RoomParticles.add(new int[] {8,30,1820,850,2170,920});</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -1659,11 +1659,11 @@
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>643.27128471162655</v>
+        <v>128.6542569423253</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>644</v>
+        <v>129</v>
       </c>
       <c r="U11" t="s">
         <v>14</v>
@@ -1678,7 +1678,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>644</v>
+        <v>129</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="10"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="AH11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,644,1830,920,2170,1230});</v>
+        <v>this.RoomParticles.add(new int[] {8,129,1830,920,2170,1230});</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -1780,11 +1780,11 @@
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>603.60085444003664</v>
+        <v>120.72017088800732</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>604</v>
+        <v>121</v>
       </c>
       <c r="U12" t="s">
         <v>14</v>
@@ -1799,7 +1799,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="9"/>
-        <v>604</v>
+        <v>121</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="10"/>
@@ -1838,7 +1838,7 @@
       </c>
       <c r="AH12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {9,604,2170,850,2600,1080});</v>
+        <v>this.RoomParticles.add(new int[] {9,121,2170,850,2600,1080});</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1902,11 +1902,11 @@
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>747.6350320415014</v>
+        <v>149.52700640830028</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>748</v>
+        <v>150</v>
       </c>
       <c r="U13" t="s">
         <v>14</v>
@@ -1921,7 +1921,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="9"/>
-        <v>748</v>
+        <v>150</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="10"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="AH13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {10,748,1820,500,2170,850});</v>
+        <v>this.RoomParticles.add(new int[] {10,150,1820,500,2170,850});</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2023,11 +2023,11 @@
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>293.56118400976504</v>
+        <v>58.712236801953004</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>294</v>
+        <v>59</v>
       </c>
       <c r="U14" t="s">
         <v>14</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="9"/>
-        <v>294</v>
+        <v>59</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="10"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="AH14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {11,294,1820,130,1950,500});</v>
+        <v>this.RoomParticles.add(new int[] {11,59,1820,130,1950,500});</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -2143,11 +2143,11 @@
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>452.2429050961245</v>
+        <v>90.448581019224903</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>453</v>
+        <v>91</v>
       </c>
       <c r="U15" t="s">
         <v>14</v>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
-        <v>453</v>
+        <v>91</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="10"/>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="AH15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {12,453,1380,0,1950,130});</v>
+        <v>this.RoomParticles.add(new int[] {12,91,1380,0,1950,130});</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2264,11 +2264,11 @@
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>609.7039975587428</v>
+        <v>121.94079951174855</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>610</v>
+        <v>122</v>
       </c>
       <c r="U16" t="s">
         <v>14</v>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="9"/>
-        <v>610</v>
+        <v>122</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="10"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="AH16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {13,610,1010,0,1380,270});</v>
+        <v>this.RoomParticles.add(new int[] {13,122,1010,0,1380,270});</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -2385,11 +2385,11 @@
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>708.57491608178213</v>
+        <v>141.71498321635642</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>709</v>
+        <v>142</v>
       </c>
       <c r="U17" t="s">
         <v>14</v>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="9"/>
-        <v>709</v>
+        <v>142</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="10"/>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="AH17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {14,709,580,0,1010,270});</v>
+        <v>this.RoomParticles.add(new int[] {14,142,580,0,1010,270});</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2505,11 +2505,11 @@
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>460.17699115044252</v>
+        <v>92.035398230088489</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>461</v>
+        <v>93</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
-        <v>461</v>
+        <v>93</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="10"/>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="AH18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,461,0,0,580,130});</v>
+        <v>this.RoomParticles.add(new int[] {15,93,0,0,580,130});</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2625,11 +2625,11 @@
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>162.34360695758315</v>
+        <v>32.468721391516631</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -2644,7 +2644,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="9"/>
-        <v>163</v>
+        <v>33</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="10"/>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="AH19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,163,440,130,580,320});</v>
+        <v>this.RoomParticles.add(new int[] {15,33,440,130,580,320});</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="Q21">
         <f>Q20/Q22</f>
-        <v>163.85</v>
+        <v>819.25</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -2717,7 +2717,7 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="AH22" t="s">
         <v>16</v>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="S23">
         <f>SUM(S3:S19)</f>
-        <v>10010</v>
+        <v>2007</v>
       </c>
       <c r="AH23" t="s">
         <v>17</v>

--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13DDBF5-4A32-472F-A778-6D723E1A44B8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2C42AF-0E52-4888-8DA6-735090533CF8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>Room</t>
   </si>
@@ -75,61 +75,58 @@
     <t>});</t>
   </si>
   <si>
-    <t>this.RoomParticles.add(new int[] {1,92,0,520,440,690});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {2,124,0,690,440,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {3,135,440,690,920,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {4,96,920,690,1260,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {5,216,920,920,1260,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {6,158,1260,690,1820,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {7,216,1260,920,1600,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,30,1820,850,2170,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,129,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {9,121,2170,850,2600,1080});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {10,150,1820,500,2170,850});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {11,59,1820,130,1950,500});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {12,91,1380,0,1950,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {13,122,1010,0,1380,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {14,142,580,0,1010,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,93,0,0,580,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,33,440,130,580,320});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,30,1820,850,2170,920,129,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,93,0,0,580,130,33,440,130,580,320});</t>
+    <t>this.RoomParticles.add(new int[] {2,7,0,690,440,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {3,7,440,690,920,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {4,5,920,690,1260,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {5,11,920,920,1260,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {6,8,1260,690,1820,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {7,11,1260,920,1600,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,2,1820,850,2170,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,7,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {9,7,2170,850,2600,1080});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {10,8,1820,500,2170,850});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {11,3,1820,130,1950,500});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {12,5,1380,0,1950,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {13,7,1010,0,1380,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {14,8,580,0,1010,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,5,0,0,580,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,2,440,130,580,320});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,2,1820,850,2170,920,7,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,5,0,0,580,130,2,440,130,580,320});</t>
   </si>
 </sst>
 </file>
@@ -491,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI37" sqref="AI22:AI37"/>
     </sheetView>
   </sheetViews>
@@ -672,11 +669,11 @@
       </c>
       <c r="R3">
         <f>Q3/$Q$21</f>
-        <v>91.303021055843757</v>
+        <v>4.5651510527921877</v>
       </c>
       <c r="S3">
         <f>ROUNDUP(R3,0)</f>
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="U3" t="s">
         <v>14</v>
@@ -691,7 +688,7 @@
       </c>
       <c r="X3">
         <f>S3</f>
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="Y3" t="str">
         <f>Y2</f>
@@ -730,7 +727,7 @@
       </c>
       <c r="AH3" s="1" t="str">
         <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
-        <v>this.RoomParticles.add(new int[] {1,92,0,520,440,690});</v>
+        <v>this.RoomParticles.add(new int[] {1,5,0,520,440,690});</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -795,11 +792,11 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R19" si="5">Q4/$Q$21</f>
-        <v>123.52761672261215</v>
+        <v>6.1763808361306074</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S19" si="6">ROUNDUP(R4,0)</f>
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="U4" t="s">
         <v>14</v>
@@ -814,7 +811,7 @@
       </c>
       <c r="X4">
         <f t="shared" ref="X4:X19" si="9">S4</f>
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ref="Y4:Y19" si="10">Y3</f>
@@ -853,7 +850,7 @@
       </c>
       <c r="AH4" s="1" t="str">
         <f t="shared" ref="AH4:AH19" si="18">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
-        <v>this.RoomParticles.add(new int[] {2,124,0,690,440,920});</v>
+        <v>this.RoomParticles.add(new int[] {2,7,0,690,440,920});</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -919,11 +916,11 @@
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>134.75740006103143</v>
+        <v>6.7378700030515715</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="U5" t="s">
         <v>14</v>
@@ -938,7 +935,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="9"/>
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="10"/>
@@ -977,7 +974,7 @@
       </c>
       <c r="AH5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {3,135,440,690,920,920});</v>
+        <v>this.RoomParticles.add(new int[] {3,7,440,690,920,920});</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -1043,11 +1040,11 @@
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>95.453158376563934</v>
+        <v>4.7726579188281963</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="U6" t="s">
         <v>14</v>
@@ -1062,7 +1059,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="9"/>
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="10"/>
@@ -1101,7 +1098,7 @@
       </c>
       <c r="AH6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {4,96,920,690,1260,920});</v>
+        <v>this.RoomParticles.add(new int[] {4,5,920,690,1260,920});</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -1167,11 +1164,11 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>215.8071406774489</v>
+        <v>10.790357033872445</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="U7" t="s">
         <v>14</v>
@@ -1186,7 +1183,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="9"/>
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="10"/>
@@ -1225,7 +1222,7 @@
       </c>
       <c r="AH7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {5,216,920,920,1260,1440});</v>
+        <v>this.RoomParticles.add(new int[] {5,11,920,920,1260,1440});</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -1290,11 +1287,11 @@
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>157.21696673787</v>
+        <v>7.8608483368935005</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="U8" t="s">
         <v>14</v>
@@ -1309,7 +1306,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="9"/>
-        <v>158</v>
+        <v>8</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="10"/>
@@ -1348,7 +1345,7 @@
       </c>
       <c r="AH8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {6,158,1260,690,1820,920});</v>
+        <v>this.RoomParticles.add(new int[] {6,8,1260,690,1820,920});</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -1413,11 +1410,11 @@
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>215.8071406774489</v>
+        <v>10.790357033872445</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="U9" t="s">
         <v>14</v>
@@ -1432,7 +1429,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="9"/>
-        <v>216</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="10"/>
@@ -1471,7 +1468,7 @@
       </c>
       <c r="AH9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {7,216,1260,920,1600,1440});</v>
+        <v>this.RoomParticles.add(new int[] {7,11,1260,920,1600,1440});</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1536,11 +1533,11 @@
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>29.905401281660055</v>
+        <v>1.4952700640830028</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="U10" t="s">
         <v>14</v>
@@ -1555,7 +1552,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="9"/>
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="10"/>
@@ -1594,7 +1591,7 @@
       </c>
       <c r="AH10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,30,1820,850,2170,920});</v>
+        <v>this.RoomParticles.add(new int[] {8,2,1820,850,2170,920});</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -1659,11 +1656,11 @@
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>128.6542569423253</v>
+        <v>6.4327128471162647</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="U11" t="s">
         <v>14</v>
@@ -1678,7 +1675,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>129</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="10"/>
@@ -1717,7 +1714,7 @@
       </c>
       <c r="AH11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,129,1830,920,2170,1230});</v>
+        <v>this.RoomParticles.add(new int[] {8,7,1830,920,2170,1230});</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -1780,11 +1777,11 @@
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>120.72017088800732</v>
+        <v>6.0360085444003664</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="U12" t="s">
         <v>14</v>
@@ -1799,7 +1796,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="9"/>
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="10"/>
@@ -1838,7 +1835,7 @@
       </c>
       <c r="AH12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {9,121,2170,850,2600,1080});</v>
+        <v>this.RoomParticles.add(new int[] {9,7,2170,850,2600,1080});</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1902,11 +1899,11 @@
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>149.52700640830028</v>
+        <v>7.4763503204150137</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="U13" t="s">
         <v>14</v>
@@ -1921,7 +1918,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="9"/>
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="10"/>
@@ -1960,7 +1957,7 @@
       </c>
       <c r="AH13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {10,150,1820,500,2170,850});</v>
+        <v>this.RoomParticles.add(new int[] {10,8,1820,500,2170,850});</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2023,11 +2020,11 @@
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>58.712236801953004</v>
+        <v>2.9356118400976503</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="U14" t="s">
         <v>14</v>
@@ -2042,7 +2039,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="9"/>
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="10"/>
@@ -2081,7 +2078,7 @@
       </c>
       <c r="AH14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {11,59,1820,130,1950,500});</v>
+        <v>this.RoomParticles.add(new int[] {11,3,1820,130,1950,500});</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -2143,11 +2140,11 @@
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>90.448581019224903</v>
+        <v>4.5224290509612448</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="U15" t="s">
         <v>14</v>
@@ -2162,7 +2159,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="10"/>
@@ -2201,7 +2198,7 @@
       </c>
       <c r="AH15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {12,91,1380,0,1950,130});</v>
+        <v>this.RoomParticles.add(new int[] {12,5,1380,0,1950,130});</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2264,11 +2261,11 @@
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>121.94079951174855</v>
+        <v>6.0970399755874274</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="U16" t="s">
         <v>14</v>
@@ -2283,7 +2280,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="9"/>
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="10"/>
@@ -2322,7 +2319,7 @@
       </c>
       <c r="AH16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {13,122,1010,0,1380,270});</v>
+        <v>this.RoomParticles.add(new int[] {13,7,1010,0,1380,270});</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -2385,11 +2382,11 @@
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>141.71498321635642</v>
+        <v>7.0857491608178211</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="U17" t="s">
         <v>14</v>
@@ -2404,7 +2401,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="9"/>
-        <v>142</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="10"/>
@@ -2443,7 +2440,7 @@
       </c>
       <c r="AH17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {14,142,580,0,1010,270});</v>
+        <v>this.RoomParticles.add(new int[] {14,8,580,0,1010,270});</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2505,11 +2502,11 @@
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>92.035398230088489</v>
+        <v>4.6017699115044248</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -2524,7 +2521,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="10"/>
@@ -2563,7 +2560,7 @@
       </c>
       <c r="AH18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,93,0,0,580,130});</v>
+        <v>this.RoomParticles.add(new int[] {15,5,0,0,580,130});</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2625,11 +2622,11 @@
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>32.468721391516631</v>
+        <v>1.6234360695758316</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -2644,7 +2641,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="9"/>
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="10"/>
@@ -2683,7 +2680,7 @@
       </c>
       <c r="AH19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,33,440,130,580,320});</v>
+        <v>this.RoomParticles.add(new int[] {15,2,440,130,580,320});</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -2709,7 +2706,7 @@
       </c>
       <c r="Q21">
         <f>Q20/Q22</f>
-        <v>819.25</v>
+        <v>16385</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -2717,13 +2714,13 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="AH22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AI22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -2732,127 +2729,127 @@
       </c>
       <c r="S23">
         <f>SUM(S3:S19)</f>
-        <v>2007</v>
+        <v>108</v>
       </c>
       <c r="AH23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2C42AF-0E52-4888-8DA6-735090533CF8}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708FA01-1735-44E6-9E5A-91CC98DCF2AB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
   <si>
     <t>Room</t>
   </si>
@@ -75,58 +75,61 @@
     <t>});</t>
   </si>
   <si>
-    <t>this.RoomParticles.add(new int[] {2,7,0,690,440,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {3,7,440,690,920,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {4,5,920,690,1260,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {5,11,920,920,1260,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {6,8,1260,690,1820,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {7,11,1260,920,1600,1440});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,2,1820,850,2170,920});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,7,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {9,7,2170,850,2600,1080});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {10,8,1820,500,2170,850});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {11,3,1820,130,1950,500});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {12,5,1380,0,1950,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {13,7,1010,0,1380,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {14,8,580,0,1010,270});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,5,0,0,580,130});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,2,440,130,580,320});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {8,2,1820,850,2170,920,7,1830,920,2170,1230});</t>
-  </si>
-  <si>
-    <t>this.RoomParticles.add(new int[] {15,5,0,0,580,130,2,440,130,580,320});</t>
+    <t>this.RoomParticles.add(new int[] {1,229,0,520,440,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {2,309,0,690,440,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {3,337,440,690,920,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {4,239,920,690,1260,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {5,540,920,920,1260,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {6,394,1260,690,1820,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {7,540,1260,920,1600,1440});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,75,1820,850,2170,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,322,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {9,302,2170,850,2600,1080});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {10,374,1820,500,2170,850});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {11,147,1820,130,1950,500});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {12,227,1380,0,1950,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {13,305,1010,0,1380,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {14,355,580,0,1010,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,231,0,0,580,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,82,440,130,580,320});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {8,75,1820,850,2170,920,322,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,231,0,0,580,130,82,440,130,580,320});</t>
   </si>
 </sst>
 </file>
@@ -669,11 +672,11 @@
       </c>
       <c r="R3">
         <f>Q3/$Q$21</f>
-        <v>4.5651510527921877</v>
+        <v>228.2575526396094</v>
       </c>
       <c r="S3">
         <f>ROUNDUP(R3,0)</f>
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="U3" t="s">
         <v>14</v>
@@ -688,7 +691,7 @@
       </c>
       <c r="X3">
         <f>S3</f>
-        <v>5</v>
+        <v>229</v>
       </c>
       <c r="Y3" t="str">
         <f>Y2</f>
@@ -727,7 +730,7 @@
       </c>
       <c r="AH3" s="1" t="str">
         <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
-        <v>this.RoomParticles.add(new int[] {1,5,0,520,440,690});</v>
+        <v>this.RoomParticles.add(new int[] {1,229,0,520,440,690});</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -792,11 +795,11 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R19" si="5">Q4/$Q$21</f>
-        <v>6.1763808361306074</v>
+        <v>308.81904180653038</v>
       </c>
       <c r="S4">
         <f t="shared" ref="S4:S19" si="6">ROUNDUP(R4,0)</f>
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="U4" t="s">
         <v>14</v>
@@ -811,7 +814,7 @@
       </c>
       <c r="X4">
         <f t="shared" ref="X4:X19" si="9">S4</f>
-        <v>7</v>
+        <v>309</v>
       </c>
       <c r="Y4" t="str">
         <f t="shared" ref="Y4:Y19" si="10">Y3</f>
@@ -850,7 +853,7 @@
       </c>
       <c r="AH4" s="1" t="str">
         <f t="shared" ref="AH4:AH19" si="18">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
-        <v>this.RoomParticles.add(new int[] {2,7,0,690,440,920});</v>
+        <v>this.RoomParticles.add(new int[] {2,309,0,690,440,920});</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -916,11 +919,11 @@
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>6.7378700030515715</v>
+        <v>336.89350015257861</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="U5" t="s">
         <v>14</v>
@@ -935,7 +938,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>337</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="10"/>
@@ -974,7 +977,7 @@
       </c>
       <c r="AH5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {3,7,440,690,920,920});</v>
+        <v>this.RoomParticles.add(new int[] {3,337,440,690,920,920});</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -1040,11 +1043,11 @@
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>4.7726579188281963</v>
+        <v>238.63289594140983</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="U6" t="s">
         <v>14</v>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>239</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="10"/>
@@ -1098,7 +1101,7 @@
       </c>
       <c r="AH6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {4,5,920,690,1260,920});</v>
+        <v>this.RoomParticles.add(new int[] {4,239,920,690,1260,920});</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -1164,11 +1167,11 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>10.790357033872445</v>
+        <v>539.51785169362222</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="U7" t="s">
         <v>14</v>
@@ -1183,7 +1186,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="10"/>
@@ -1222,7 +1225,7 @@
       </c>
       <c r="AH7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {5,11,920,920,1260,1440});</v>
+        <v>this.RoomParticles.add(new int[] {5,540,920,920,1260,1440});</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -1287,11 +1290,11 @@
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>7.8608483368935005</v>
+        <v>393.04241684467502</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="U8" t="s">
         <v>14</v>
@@ -1306,7 +1309,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>394</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="10"/>
@@ -1345,7 +1348,7 @@
       </c>
       <c r="AH8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {6,8,1260,690,1820,920});</v>
+        <v>this.RoomParticles.add(new int[] {6,394,1260,690,1820,920});</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -1410,11 +1413,11 @@
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>10.790357033872445</v>
+        <v>539.51785169362222</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="U9" t="s">
         <v>14</v>
@@ -1429,7 +1432,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="9"/>
-        <v>11</v>
+        <v>540</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="10"/>
@@ -1468,7 +1471,7 @@
       </c>
       <c r="AH9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {7,11,1260,920,1600,1440});</v>
+        <v>this.RoomParticles.add(new int[] {7,540,1260,920,1600,1440});</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1533,11 +1536,11 @@
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>1.4952700640830028</v>
+        <v>74.76350320415014</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s">
         <v>14</v>
@@ -1552,7 +1555,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="10"/>
@@ -1591,7 +1594,7 @@
       </c>
       <c r="AH10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,2,1820,850,2170,920});</v>
+        <v>this.RoomParticles.add(new int[] {8,75,1820,850,2170,920});</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -1656,11 +1659,11 @@
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>6.4327128471162647</v>
+        <v>321.63564235581327</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>322</v>
       </c>
       <c r="U11" t="s">
         <v>14</v>
@@ -1675,7 +1678,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>322</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="10"/>
@@ -1714,7 +1717,7 @@
       </c>
       <c r="AH11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,7,1830,920,2170,1230});</v>
+        <v>this.RoomParticles.add(new int[] {8,322,1830,920,2170,1230});</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -1777,11 +1780,11 @@
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>6.0360085444003664</v>
+        <v>301.80042722001832</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="U12" t="s">
         <v>14</v>
@@ -1796,7 +1799,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="10"/>
@@ -1835,7 +1838,7 @@
       </c>
       <c r="AH12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {9,7,2170,850,2600,1080});</v>
+        <v>this.RoomParticles.add(new int[] {9,302,2170,850,2600,1080});</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1899,11 +1902,11 @@
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>7.4763503204150137</v>
+        <v>373.8175160207507</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="U13" t="s">
         <v>14</v>
@@ -1918,7 +1921,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>374</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="10"/>
@@ -1957,7 +1960,7 @@
       </c>
       <c r="AH13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {10,8,1820,500,2170,850});</v>
+        <v>this.RoomParticles.add(new int[] {10,374,1820,500,2170,850});</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2020,11 +2023,11 @@
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>2.9356118400976503</v>
+        <v>146.78059200488252</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="U14" t="s">
         <v>14</v>
@@ -2039,7 +2042,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="9"/>
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="10"/>
@@ -2078,7 +2081,7 @@
       </c>
       <c r="AH14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {11,3,1820,130,1950,500});</v>
+        <v>this.RoomParticles.add(new int[] {11,147,1820,130,1950,500});</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -2140,11 +2143,11 @@
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>4.5224290509612448</v>
+        <v>226.12145254806225</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="U15" t="s">
         <v>14</v>
@@ -2159,7 +2162,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="10"/>
@@ -2198,7 +2201,7 @@
       </c>
       <c r="AH15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {12,5,1380,0,1950,130});</v>
+        <v>this.RoomParticles.add(new int[] {12,227,1380,0,1950,130});</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2261,11 +2264,11 @@
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>6.0970399755874274</v>
+        <v>304.8519987793714</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="U16" t="s">
         <v>14</v>
@@ -2280,7 +2283,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="9"/>
-        <v>7</v>
+        <v>305</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="10"/>
@@ -2319,7 +2322,7 @@
       </c>
       <c r="AH16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {13,7,1010,0,1380,270});</v>
+        <v>this.RoomParticles.add(new int[] {13,305,1010,0,1380,270});</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -2382,11 +2385,11 @@
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>7.0857491608178211</v>
+        <v>354.28745804089107</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>355</v>
       </c>
       <c r="U17" t="s">
         <v>14</v>
@@ -2401,7 +2404,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="9"/>
-        <v>8</v>
+        <v>355</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="10"/>
@@ -2440,7 +2443,7 @@
       </c>
       <c r="AH17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {14,8,580,0,1010,270});</v>
+        <v>this.RoomParticles.add(new int[] {14,355,580,0,1010,270});</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2502,11 +2505,11 @@
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>4.6017699115044248</v>
+        <v>230.08849557522126</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -2521,7 +2524,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="10"/>
@@ -2560,7 +2563,7 @@
       </c>
       <c r="AH18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,5,0,0,580,130});</v>
+        <v>this.RoomParticles.add(new int[] {15,231,0,0,580,130});</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2622,11 +2625,11 @@
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>1.6234360695758316</v>
+        <v>81.171803478791574</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -2641,7 +2644,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="10"/>
@@ -2680,7 +2683,7 @@
       </c>
       <c r="AH19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,2,440,130,580,320});</v>
+        <v>this.RoomParticles.add(new int[] {15,82,440,130,580,320});</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
@@ -2706,7 +2709,7 @@
       </c>
       <c r="Q21">
         <f>Q20/Q22</f>
-        <v>16385</v>
+        <v>327.7</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
@@ -2714,13 +2717,13 @@
         <v>8</v>
       </c>
       <c r="Q22">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="AH22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
@@ -2729,127 +2732,127 @@
       </c>
       <c r="S23">
         <f>SUM(S3:S19)</f>
-        <v>108</v>
+        <v>5008</v>
       </c>
       <c r="AH23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI33" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AI37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9708FA01-1735-44E6-9E5A-91CC98DCF2AB}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5CDF59-2917-4FC0-89AD-2A643769CFF3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>Room</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>this.RoomParticles.add(new int[] {15,231,0,0,580,130,82,440,130,580,320});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {16,279,1010,270,1240,690});</t>
   </si>
 </sst>
 </file>
@@ -489,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI37" sqref="AI22:AI37"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -671,12 +674,12 @@
         <v>74800</v>
       </c>
       <c r="R3">
-        <f>Q3/$Q$21</f>
-        <v>228.2575526396094</v>
+        <f>Q3/$Q$22</f>
+        <v>215.54953604979542</v>
       </c>
       <c r="S3">
         <f>ROUNDUP(R3,0)</f>
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="U3" t="s">
         <v>14</v>
@@ -691,7 +694,7 @@
       </c>
       <c r="X3">
         <f>S3</f>
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="Y3" t="str">
         <f>Y2</f>
@@ -730,7 +733,7 @@
       </c>
       <c r="AH3" s="1" t="str">
         <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
-        <v>this.RoomParticles.add(new int[] {1,229,0,520,440,690});</v>
+        <v>this.RoomParticles.add(new int[] {1,216,0,520,440,690});</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.2">
@@ -790,16 +793,16 @@
         <v>230</v>
       </c>
       <c r="Q4">
-        <f t="shared" ref="Q4:Q19" si="4">O4*P4</f>
+        <f t="shared" ref="Q4:Q20" si="4">O4*P4</f>
         <v>101200</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R4:R19" si="5">Q4/$Q$21</f>
-        <v>308.81904180653038</v>
+        <f t="shared" ref="R4:R20" si="5">Q4/$Q$22</f>
+        <v>291.62584289089966</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S19" si="6">ROUNDUP(R4,0)</f>
-        <v>309</v>
+        <f t="shared" ref="S4:S20" si="6">ROUNDUP(R4,0)</f>
+        <v>292</v>
       </c>
       <c r="U4" t="s">
         <v>14</v>
@@ -809,15 +812,15 @@
         <v>2</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" ref="W4:W19" si="8">W3</f>
+        <f t="shared" ref="W4:W20" si="8">W3</f>
         <v>,</v>
       </c>
       <c r="X4">
         <f t="shared" ref="X4:X19" si="9">S4</f>
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" ref="Y4:Y19" si="10">Y3</f>
+        <f t="shared" ref="Y4:Y20" si="10">Y3</f>
         <v>,</v>
       </c>
       <c r="Z4">
@@ -825,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="AA4" t="str">
-        <f t="shared" ref="AA4:AA19" si="12">AA3</f>
+        <f t="shared" ref="AA4:AA20" si="12">AA3</f>
         <v>,</v>
       </c>
       <c r="AB4">
@@ -833,7 +836,7 @@
         <v>690</v>
       </c>
       <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC19" si="14">AC3</f>
+        <f t="shared" ref="AC4:AC20" si="14">AC3</f>
         <v>,</v>
       </c>
       <c r="AD4">
@@ -841,7 +844,7 @@
         <v>440</v>
       </c>
       <c r="AE4" t="str">
-        <f t="shared" ref="AE4:AE19" si="16">AE3</f>
+        <f t="shared" ref="AE4:AE20" si="16">AE3</f>
         <v>,</v>
       </c>
       <c r="AF4">
@@ -853,7 +856,7 @@
       </c>
       <c r="AH4" s="1" t="str">
         <f t="shared" ref="AH4:AH19" si="18">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
-        <v>this.RoomParticles.add(new int[] {2,309,0,690,440,920});</v>
+        <v>this.RoomParticles.add(new int[] {2,292,0,690,440,920});</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.2">
@@ -919,11 +922,11 @@
       </c>
       <c r="R5">
         <f t="shared" si="5"/>
-        <v>336.89350015257861</v>
+        <v>318.13728315370872</v>
       </c>
       <c r="S5">
         <f t="shared" si="6"/>
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="U5" t="s">
         <v>14</v>
@@ -938,7 +941,7 @@
       </c>
       <c r="X5">
         <f t="shared" si="9"/>
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="Y5" t="str">
         <f t="shared" si="10"/>
@@ -977,7 +980,7 @@
       </c>
       <c r="AH5" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {3,337,440,690,920,920});</v>
+        <v>this.RoomParticles.add(new int[] {3,319,440,690,920,920});</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.2">
@@ -1043,11 +1046,11 @@
       </c>
       <c r="R6">
         <f t="shared" si="5"/>
-        <v>238.63289594140983</v>
+        <v>225.34724223387701</v>
       </c>
       <c r="S6">
         <f t="shared" si="6"/>
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="U6" t="s">
         <v>14</v>
@@ -1062,7 +1065,7 @@
       </c>
       <c r="X6">
         <f t="shared" si="9"/>
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="Y6" t="str">
         <f t="shared" si="10"/>
@@ -1101,7 +1104,7 @@
       </c>
       <c r="AH6" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {4,239,920,690,1260,920});</v>
+        <v>this.RoomParticles.add(new int[] {4,226,920,690,1260,920});</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.2">
@@ -1167,11 +1170,11 @@
       </c>
       <c r="R7">
         <f t="shared" si="5"/>
-        <v>539.51785169362222</v>
+        <v>509.48072157224368</v>
       </c>
       <c r="S7">
         <f t="shared" si="6"/>
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="U7" t="s">
         <v>14</v>
@@ -1186,7 +1189,7 @@
       </c>
       <c r="X7">
         <f t="shared" si="9"/>
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Y7" t="str">
         <f t="shared" si="10"/>
@@ -1225,7 +1228,7 @@
       </c>
       <c r="AH7" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {5,540,920,920,1260,1440});</v>
+        <v>this.RoomParticles.add(new int[] {5,510,920,920,1260,1440});</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.2">
@@ -1290,11 +1293,11 @@
       </c>
       <c r="R8">
         <f t="shared" si="5"/>
-        <v>393.04241684467502</v>
+        <v>371.16016367932684</v>
       </c>
       <c r="S8">
         <f t="shared" si="6"/>
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="U8" t="s">
         <v>14</v>
@@ -1309,7 +1312,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="9"/>
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="Y8" t="str">
         <f t="shared" si="10"/>
@@ -1348,7 +1351,7 @@
       </c>
       <c r="AH8" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {6,394,1260,690,1820,920});</v>
+        <v>this.RoomParticles.add(new int[] {6,372,1260,690,1820,920});</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.2">
@@ -1413,11 +1416,11 @@
       </c>
       <c r="R9">
         <f t="shared" si="5"/>
-        <v>539.51785169362222</v>
+        <v>509.48072157224368</v>
       </c>
       <c r="S9">
         <f t="shared" si="6"/>
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="U9" t="s">
         <v>14</v>
@@ -1432,7 +1435,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="9"/>
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="Y9" t="str">
         <f t="shared" si="10"/>
@@ -1471,7 +1474,7 @@
       </c>
       <c r="AH9" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {7,540,1260,920,1600,1440});</v>
+        <v>this.RoomParticles.add(new int[] {7,510,1260,920,1600,1440});</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -1536,11 +1539,11 @@
       </c>
       <c r="R10">
         <f t="shared" si="5"/>
-        <v>74.76350320415014</v>
+        <v>70.601118091176303</v>
       </c>
       <c r="S10">
         <f t="shared" si="6"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="U10" t="s">
         <v>14</v>
@@ -1555,7 +1558,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="9"/>
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Y10" t="str">
         <f t="shared" si="10"/>
@@ -1594,7 +1597,7 @@
       </c>
       <c r="AH10" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,75,1820,850,2170,920});</v>
+        <v>this.RoomParticles.add(new int[] {8,71,1820,850,2170,920});</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.2">
@@ -1659,11 +1662,11 @@
       </c>
       <c r="R11">
         <f t="shared" si="5"/>
-        <v>321.63564235581327</v>
+        <v>303.72889170652991</v>
       </c>
       <c r="S11">
         <f t="shared" si="6"/>
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="U11" t="s">
         <v>14</v>
@@ -1678,7 +1681,7 @@
       </c>
       <c r="X11">
         <f t="shared" si="9"/>
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="Y11" t="str">
         <f t="shared" si="10"/>
@@ -1717,7 +1720,7 @@
       </c>
       <c r="AH11" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {8,322,1830,920,2170,1230});</v>
+        <v>this.RoomParticles.add(new int[] {8,304,1830,920,2170,1230});</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.2">
@@ -1780,11 +1783,11 @@
       </c>
       <c r="R12">
         <f t="shared" si="5"/>
-        <v>301.80042722001832</v>
+        <v>284.99798282519743</v>
       </c>
       <c r="S12">
         <f t="shared" si="6"/>
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="U12" t="s">
         <v>14</v>
@@ -1799,7 +1802,7 @@
       </c>
       <c r="X12">
         <f t="shared" si="9"/>
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="Y12" t="str">
         <f t="shared" si="10"/>
@@ -1838,7 +1841,7 @@
       </c>
       <c r="AH12" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {9,302,2170,850,2600,1080});</v>
+        <v>this.RoomParticles.add(new int[] {9,285,2170,850,2600,1080});</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.2">
@@ -1902,11 +1905,11 @@
       </c>
       <c r="R13">
         <f t="shared" si="5"/>
-        <v>373.8175160207507</v>
+        <v>353.00559045588153</v>
       </c>
       <c r="S13">
         <f t="shared" si="6"/>
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="U13" t="s">
         <v>14</v>
@@ -1921,7 +1924,7 @@
       </c>
       <c r="X13">
         <f t="shared" si="9"/>
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="Y13" t="str">
         <f t="shared" si="10"/>
@@ -1960,7 +1963,7 @@
       </c>
       <c r="AH13" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {10,374,1820,500,2170,850});</v>
+        <v>this.RoomParticles.add(new int[] {10,354,1820,500,2170,850});</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -2023,11 +2026,11 @@
       </c>
       <c r="R14">
         <f t="shared" si="5"/>
-        <v>146.78059200488252</v>
+        <v>138.60872572186042</v>
       </c>
       <c r="S14">
         <f t="shared" si="6"/>
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="U14" t="s">
         <v>14</v>
@@ -2042,7 +2045,7 @@
       </c>
       <c r="X14">
         <f t="shared" si="9"/>
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="Y14" t="str">
         <f t="shared" si="10"/>
@@ -2081,7 +2084,7 @@
       </c>
       <c r="AH14" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {11,147,1820,130,1950,500});</v>
+        <v>this.RoomParticles.add(new int[] {11,139,1820,130,1950,500});</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -2143,11 +2146,11 @@
       </c>
       <c r="R15">
         <f t="shared" si="5"/>
-        <v>226.12145254806225</v>
+        <v>213.53236124719038</v>
       </c>
       <c r="S15">
         <f t="shared" si="6"/>
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="U15" t="s">
         <v>14</v>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="X15">
         <f t="shared" si="9"/>
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="Y15" t="str">
         <f t="shared" si="10"/>
@@ -2201,7 +2204,7 @@
       </c>
       <c r="AH15" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {12,227,1380,0,1950,130});</v>
+        <v>this.RoomParticles.add(new int[] {12,214,1380,0,1950,130});</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -2264,11 +2267,11 @@
       </c>
       <c r="R16">
         <f t="shared" si="5"/>
-        <v>304.8519987793714</v>
+        <v>287.87966111463317</v>
       </c>
       <c r="S16">
         <f t="shared" si="6"/>
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="U16" t="s">
         <v>14</v>
@@ -2283,7 +2286,7 @@
       </c>
       <c r="X16">
         <f t="shared" si="9"/>
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="Y16" t="str">
         <f t="shared" si="10"/>
@@ -2322,7 +2325,7 @@
       </c>
       <c r="AH16" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {13,305,1010,0,1380,270});</v>
+        <v>this.RoomParticles.add(new int[] {13,288,1010,0,1380,270});</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.2">
@@ -2385,11 +2388,11 @@
       </c>
       <c r="R17">
         <f t="shared" si="5"/>
-        <v>354.28745804089107</v>
+        <v>334.56284940349263</v>
       </c>
       <c r="S17">
         <f t="shared" si="6"/>
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="U17" t="s">
         <v>14</v>
@@ -2404,7 +2407,7 @@
       </c>
       <c r="X17">
         <f t="shared" si="9"/>
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="Y17" t="str">
         <f t="shared" si="10"/>
@@ -2443,7 +2446,7 @@
       </c>
       <c r="AH17" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {14,355,580,0,1010,270});</v>
+        <v>this.RoomParticles.add(new int[] {14,335,580,0,1010,270});</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -2505,11 +2508,11 @@
       </c>
       <c r="R18">
         <f t="shared" si="5"/>
-        <v>230.08849557522126</v>
+        <v>217.27854302345688</v>
       </c>
       <c r="S18">
         <f t="shared" si="6"/>
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="U18" t="s">
         <v>14</v>
@@ -2524,7 +2527,7 @@
       </c>
       <c r="X18">
         <f t="shared" si="9"/>
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="Y18" t="str">
         <f t="shared" si="10"/>
@@ -2563,7 +2566,7 @@
       </c>
       <c r="AH18" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,231,0,0,580,130});</v>
+        <v>this.RoomParticles.add(new int[] {15,218,0,0,580,130});</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
@@ -2625,11 +2628,11 @@
       </c>
       <c r="R19">
         <f t="shared" si="5"/>
-        <v>81.171803478791574</v>
+        <v>76.652642498991412</v>
       </c>
       <c r="S19">
         <f t="shared" si="6"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s">
         <v>14</v>
@@ -2644,7 +2647,7 @@
       </c>
       <c r="X19">
         <f t="shared" si="9"/>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="str">
         <f t="shared" si="10"/>
@@ -2683,176 +2686,306 @@
       </c>
       <c r="AH19" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>this.RoomParticles.add(new int[] {15,82,440,130,580,320});</v>
+        <v>this.RoomParticles.add(new int[] {15,77,440,130,580,320});</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="P20" t="s">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>1010</v>
+      </c>
+      <c r="C20">
+        <v>270</v>
+      </c>
+      <c r="D20">
+        <f>B20+230</f>
+        <v>1240</v>
+      </c>
+      <c r="E20">
+        <f>C20+420</f>
+        <v>690</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20" si="19">D20-B20</f>
+        <v>230</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ref="G20" si="20">E20-C20</f>
+        <v>420</v>
+      </c>
+      <c r="H20" t="b">
+        <f t="shared" ref="H20" si="21">B20&lt;D20</f>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" ref="I20" si="22">C20&lt;E20</f>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>1010</v>
+      </c>
+      <c r="L20">
+        <v>270</v>
+      </c>
+      <c r="M20">
+        <v>1240</v>
+      </c>
+      <c r="N20">
+        <v>690</v>
+      </c>
+      <c r="O20">
+        <v>230</v>
+      </c>
+      <c r="P20">
+        <v>420</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>96600</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="5"/>
+        <v>278.37012275949513</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="6"/>
+        <v>279</v>
+      </c>
+      <c r="U20" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ref="V20" si="23">J20</f>
+        <v>16</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="8"/>
+        <v>,</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ref="X20" si="24">S20</f>
+        <v>279</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="10"/>
+        <v>,</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ref="Z20" si="25">K20</f>
+        <v>1010</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="12"/>
+        <v>,</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ref="AB20" si="26">L20</f>
+        <v>270</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="14"/>
+        <v>,</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" ref="AD20" si="27">M20</f>
+        <v>1240</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="16"/>
+        <v>,</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" ref="AF20" si="28">N20</f>
+        <v>690</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH20" s="1" t="str">
+        <f t="shared" ref="AH20" si="29">U20&amp;V20&amp;W20&amp;X20&amp;Y20&amp;Z20&amp;AA20&amp;AB20&amp;AC20&amp;AD20&amp;AE20&amp;AF20&amp;AG20</f>
+        <v>this.RoomParticles.add(new int[] {16,279,1010,270,1240,690});</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
         <v>9</v>
       </c>
-      <c r="Q20">
-        <f>SUM(Q3:Q19)</f>
-        <v>1638500</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C21">
+      <c r="Q21">
+        <f>SUM(Q3:Q20)</f>
+        <v>1735100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C22">
         <f>14.4-11.2</f>
         <v>3.2000000000000011</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <f>2.3+3.7+5.2</f>
         <v>11.2</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P22" t="s">
         <v>10</v>
       </c>
-      <c r="Q21">
-        <f>Q20/Q22</f>
-        <v>327.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="P22" t="s">
-        <v>8</v>
-      </c>
       <c r="Q22">
-        <v>5000</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>16</v>
+        <f>Q21/Q23</f>
+        <v>347.02</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <v>5000</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
         <v>11</v>
       </c>
-      <c r="S23">
-        <f>SUM(S3:S19)</f>
-        <v>5008</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="S24">
+        <f>SUM(S3:S20)</f>
+        <v>5009</v>
+      </c>
+      <c r="AH24" t="s">
         <v>17</v>
       </c>
-      <c r="AI23" t="s">
+      <c r="AI24" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AH24" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI29" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH30" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="AH32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AI37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="34:35" x14ac:dyDescent="0.2">
       <c r="AH38" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH39" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH40" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Room coordinates.xlsx
+++ b/Room coordinates.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EIT Digital\TU Delft\Q3\Smart Phone Sensing\Example6-SPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5CDF59-2917-4FC0-89AD-2A643769CFF3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{614FFC03-53F9-47A8-A3F7-7A1BF439D114}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="986" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="4" sheetId="1" r:id="rId1"/>
+    <sheet name="3" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="54">
   <si>
     <t>Room</t>
   </si>
@@ -133,6 +134,60 @@
   </si>
   <si>
     <t>this.RoomParticles.add(new int[] {16,279,1010,270,1240,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {18,176,0,360,180,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {102,123,0,690,180,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {103,504,180,690,920,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {104,232,920,690,1260,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {106,381,1260,690,1820,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {152,116,1240,270,1380,550});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {108,73,1820,850,2170,920});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {108,312,1830,920,2170,1230});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {19,962,1950,0,2600,500});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {110,363,1820,500,2170,850});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {111,143,1820,130,1950,500});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {112,220,1380,0,1950,130});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {113,296,1010,0,1380,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {114,344,580,0,1010,270});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {151,261,800,270,1010,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {15,216,440,0,580,520});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {17,286,1010,270,1240,690});</t>
+  </si>
+  <si>
+    <t>this.RoomParticles.add(new int[] {108,73,1820,850,2170,920,312,1830,920,2170,1230});</t>
   </si>
 </sst>
 </file>
@@ -494,9 +549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3000,4 +3053,2295 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E38D98-A1F6-4F17-B108-CDC09309EAA8}">
+  <dimension ref="A1:AI40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AI23" sqref="AI23:AI40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="21" max="21" width="64.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="95" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>360</v>
+      </c>
+      <c r="D3">
+        <v>180</v>
+      </c>
+      <c r="E3">
+        <f>C3+330</f>
+        <v>690</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G19" si="0">D3-B3</f>
+        <v>180</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="H3" t="b">
+        <f>B3&lt;D3</f>
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <f t="shared" ref="I3:I20" si="1">C3&lt;E3</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>360</v>
+      </c>
+      <c r="M3">
+        <v>180</v>
+      </c>
+      <c r="N3">
+        <v>690</v>
+      </c>
+      <c r="O3">
+        <v>180</v>
+      </c>
+      <c r="P3">
+        <v>330</v>
+      </c>
+      <c r="Q3">
+        <f>O3*P3</f>
+        <v>59400</v>
+      </c>
+      <c r="R3">
+        <f>Q3/$Q$22</f>
+        <v>175.69805963085662</v>
+      </c>
+      <c r="S3">
+        <f>ROUNDUP(R3,0)</f>
+        <v>176</v>
+      </c>
+      <c r="U3" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3">
+        <f>J3</f>
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3">
+        <f>S3</f>
+        <v>176</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z3">
+        <f>K3</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB3">
+        <f>L3</f>
+        <v>360</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3">
+        <f>M3</f>
+        <v>180</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3">
+        <f>N3</f>
+        <v>690</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="1" t="str">
+        <f>U3&amp;V3&amp;W3&amp;X3&amp;Y3&amp;Z3&amp;AA3&amp;AB3&amp;AC3&amp;AD3&amp;AE3&amp;AF3&amp;AG3</f>
+        <v>this.RoomParticles.add(new int[] {18,176,0,360,180,690});</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>E3</f>
+        <v>690</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>180</v>
+      </c>
+      <c r="E4">
+        <f>1440-520</f>
+        <v>920</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="H4" t="b">
+        <f t="shared" ref="H4:H20" si="2">B4&lt;D4</f>
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>102</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>690</v>
+      </c>
+      <c r="M4">
+        <v>180</v>
+      </c>
+      <c r="N4">
+        <v>920</v>
+      </c>
+      <c r="O4">
+        <v>180</v>
+      </c>
+      <c r="P4">
+        <v>230</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" ref="Q4:Q20" si="3">O4*P4</f>
+        <v>41400</v>
+      </c>
+      <c r="R4">
+        <f t="shared" ref="R4:R20" si="4">Q4/$Q$22</f>
+        <v>122.45622337908188</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S20" si="5">ROUNDUP(R4,0)</f>
+        <v>123</v>
+      </c>
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V20" si="6">J4</f>
+        <v>102</v>
+      </c>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X20" si="7">S4</f>
+        <v>123</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z20" si="8">K4</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB20" si="9">L4</f>
+        <v>690</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD20" si="10">M4</f>
+        <v>180</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF20" si="11">N4</f>
+        <v>920</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH4" s="1" t="str">
+        <f t="shared" ref="AH4:AH20" si="12">U4&amp;V4&amp;W4&amp;X4&amp;Y4&amp;Z4&amp;AA4&amp;AB4&amp;AC4&amp;AD4&amp;AE4&amp;AF4&amp;AG4</f>
+        <v>this.RoomParticles.add(new int[] {102,123,0,690,180,920});</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>180</v>
+      </c>
+      <c r="C5">
+        <f>C4</f>
+        <v>690</v>
+      </c>
+      <c r="D5">
+        <v>920</v>
+      </c>
+      <c r="E5">
+        <f>E4</f>
+        <v>920</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>740</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="H5" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>103</v>
+      </c>
+      <c r="K5">
+        <v>180</v>
+      </c>
+      <c r="L5">
+        <v>690</v>
+      </c>
+      <c r="M5">
+        <v>920</v>
+      </c>
+      <c r="N5">
+        <v>920</v>
+      </c>
+      <c r="O5">
+        <v>740</v>
+      </c>
+      <c r="P5">
+        <v>230</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="3"/>
+        <v>170200</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>503.43114055844774</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="5"/>
+        <v>504</v>
+      </c>
+      <c r="U5" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="6"/>
+        <v>103</v>
+      </c>
+      <c r="W5" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="7"/>
+        <v>504</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="9"/>
+        <v>690</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="10"/>
+        <v>920</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="11"/>
+        <v>920</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH5" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {103,504,180,690,920,920});</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6">
+        <f>D5</f>
+        <v>920</v>
+      </c>
+      <c r="C6">
+        <f>C5</f>
+        <v>690</v>
+      </c>
+      <c r="D6">
+        <f>D5+340</f>
+        <v>1260</v>
+      </c>
+      <c r="E6">
+        <f>E5</f>
+        <v>920</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="H6" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>104</v>
+      </c>
+      <c r="K6">
+        <v>920</v>
+      </c>
+      <c r="L6">
+        <v>690</v>
+      </c>
+      <c r="M6">
+        <v>1260</v>
+      </c>
+      <c r="N6">
+        <v>920</v>
+      </c>
+      <c r="O6">
+        <v>340</v>
+      </c>
+      <c r="P6">
+        <v>230</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="3"/>
+        <v>78200</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="4"/>
+        <v>231.30619971604355</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>232</v>
+      </c>
+      <c r="U6" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+      <c r="W6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>232</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>920</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="9"/>
+        <v>690</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="10"/>
+        <v>1260</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="11"/>
+        <v>920</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH6" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {104,232,920,690,1260,920});</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="AH7" s="1"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>1260</v>
+      </c>
+      <c r="C8">
+        <f>C5</f>
+        <v>690</v>
+      </c>
+      <c r="D8">
+        <f>B8+560</f>
+        <v>1820</v>
+      </c>
+      <c r="E8">
+        <f>E5</f>
+        <v>920</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="H8" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>106</v>
+      </c>
+      <c r="K8">
+        <v>1260</v>
+      </c>
+      <c r="L8">
+        <v>690</v>
+      </c>
+      <c r="M8">
+        <v>1820</v>
+      </c>
+      <c r="N8">
+        <v>920</v>
+      </c>
+      <c r="O8">
+        <v>560</v>
+      </c>
+      <c r="P8">
+        <v>230</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="3"/>
+        <v>128800</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="4"/>
+        <v>380.97491717936583</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="5"/>
+        <v>381</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8" si="13">J8</f>
+        <v>106</v>
+      </c>
+      <c r="W8" t="s">
+        <v>12</v>
+      </c>
+      <c r="X8">
+        <f t="shared" ref="X8" si="14">S8</f>
+        <v>381</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8" si="15">K8</f>
+        <v>1260</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ref="AB8" si="16">L8</f>
+        <v>690</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ref="AD8" si="17">M8</f>
+        <v>1820</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" ref="AF8" si="18">N8</f>
+        <v>920</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH8" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {106,381,1260,690,1820,920});</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <f>D18+230</f>
+        <v>1240</v>
+      </c>
+      <c r="C9">
+        <v>270</v>
+      </c>
+      <c r="D9">
+        <f>B9+140</f>
+        <v>1380</v>
+      </c>
+      <c r="E9">
+        <v>550</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ref="F9" si="19">D9-B9</f>
+        <v>140</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9" si="20">E9-C9</f>
+        <v>280</v>
+      </c>
+      <c r="H9" t="b">
+        <f t="shared" ref="H9" si="21">B9&lt;D9</f>
+        <v>1</v>
+      </c>
+      <c r="I9" t="b">
+        <f t="shared" ref="I9" si="22">C9&lt;E9</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>152</v>
+      </c>
+      <c r="K9">
+        <v>1240</v>
+      </c>
+      <c r="L9">
+        <v>270</v>
+      </c>
+      <c r="M9">
+        <v>1380</v>
+      </c>
+      <c r="N9">
+        <v>550</v>
+      </c>
+      <c r="O9">
+        <v>140</v>
+      </c>
+      <c r="P9">
+        <v>280</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ref="Q9" si="23">O9*P9</f>
+        <v>39200</v>
+      </c>
+      <c r="R9">
+        <f t="shared" ref="R9" si="24">Q9/$Q$22</f>
+        <v>115.9488878371983</v>
+      </c>
+      <c r="S9">
+        <f t="shared" ref="S9" si="25">ROUNDUP(R9,0)</f>
+        <v>116</v>
+      </c>
+      <c r="U9" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ref="V9" si="26">J9</f>
+        <v>152</v>
+      </c>
+      <c r="W9" t="s">
+        <v>12</v>
+      </c>
+      <c r="X9">
+        <f t="shared" ref="X9" si="27">S9</f>
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" ref="Z9" si="28">K9</f>
+        <v>1240</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ref="AB9" si="29">L9</f>
+        <v>270</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" ref="AD9" si="30">M9</f>
+        <v>1380</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" ref="AF9" si="31">N9</f>
+        <v>550</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH9" s="1" t="str">
+        <f t="shared" ref="AH9" si="32">U9&amp;V9&amp;W9&amp;X9&amp;Y9&amp;Z9&amp;AA9&amp;AB9&amp;AC9&amp;AD9&amp;AE9&amp;AF9&amp;AG9</f>
+        <v>this.RoomParticles.add(new int[] {152,116,1240,270,1380,550});</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <f>2600-650-130</f>
+        <v>1820</v>
+      </c>
+      <c r="C10">
+        <v>850</v>
+      </c>
+      <c r="D10">
+        <f>2600-430</f>
+        <v>2170</v>
+      </c>
+      <c r="E10">
+        <f>1440-520</f>
+        <v>920</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="H10" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>108</v>
+      </c>
+      <c r="K10">
+        <v>1820</v>
+      </c>
+      <c r="L10">
+        <v>850</v>
+      </c>
+      <c r="M10">
+        <v>2170</v>
+      </c>
+      <c r="N10">
+        <v>920</v>
+      </c>
+      <c r="O10">
+        <v>350</v>
+      </c>
+      <c r="P10">
+        <v>70</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="3"/>
+        <v>24500</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="4"/>
+        <v>72.468054898248937</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+      <c r="U10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ref="V10:V12" si="33">J10</f>
+        <v>108</v>
+      </c>
+      <c r="W10" t="s">
+        <v>12</v>
+      </c>
+      <c r="X10">
+        <f t="shared" ref="X10:X12" si="34">S10</f>
+        <v>73</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:Z12" si="35">K10</f>
+        <v>1820</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ref="AB10:AB12" si="36">L10</f>
+        <v>850</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" ref="AD10:AD12" si="37">M10</f>
+        <v>2170</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" ref="AF10:AF12" si="38">N10</f>
+        <v>920</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH10" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {108,73,1820,850,2170,920});</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <f>2600-430-340</f>
+        <v>1830</v>
+      </c>
+      <c r="C11">
+        <v>920</v>
+      </c>
+      <c r="D11">
+        <f>D10</f>
+        <v>2170</v>
+      </c>
+      <c r="E11">
+        <f>1440-210</f>
+        <v>1230</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="H11" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>108</v>
+      </c>
+      <c r="K11">
+        <v>1830</v>
+      </c>
+      <c r="L11">
+        <v>920</v>
+      </c>
+      <c r="M11">
+        <v>2170</v>
+      </c>
+      <c r="N11">
+        <v>1230</v>
+      </c>
+      <c r="O11">
+        <v>340</v>
+      </c>
+      <c r="P11">
+        <v>310</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="3"/>
+        <v>105400</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="4"/>
+        <v>311.7605300520587</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="5"/>
+        <v>312</v>
+      </c>
+      <c r="U11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="33"/>
+        <v>108</v>
+      </c>
+      <c r="W11" t="s">
+        <v>12</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="34"/>
+        <v>312</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="35"/>
+        <v>1830</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="36"/>
+        <v>920</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="37"/>
+        <v>2170</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="38"/>
+        <v>1230</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH11" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {108,312,1830,920,2170,1230});</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>1950</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>2600</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ref="F12" si="39">D12-B12</f>
+        <v>650</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12" si="40">E12-C12</f>
+        <v>500</v>
+      </c>
+      <c r="H12" t="b">
+        <f t="shared" ref="H12" si="41">B12&lt;D12</f>
+        <v>1</v>
+      </c>
+      <c r="I12" t="b">
+        <f t="shared" ref="I12" si="42">C12&lt;E12</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>19</v>
+      </c>
+      <c r="K12">
+        <v>1950</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2600</v>
+      </c>
+      <c r="N12">
+        <v>500</v>
+      </c>
+      <c r="O12">
+        <v>650</v>
+      </c>
+      <c r="P12">
+        <v>500</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ref="Q12" si="43">O12*P12</f>
+        <v>325000</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12" si="44">Q12/$Q$22</f>
+        <v>961.3109323237104</v>
+      </c>
+      <c r="S12">
+        <f t="shared" ref="S12" si="45">ROUNDUP(R12,0)</f>
+        <v>962</v>
+      </c>
+      <c r="U12" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="33"/>
+        <v>19</v>
+      </c>
+      <c r="W12" t="s">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="34"/>
+        <v>962</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="35"/>
+        <v>1950</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="37"/>
+        <v>2600</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="38"/>
+        <v>500</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH12" s="1" t="str">
+        <f t="shared" ref="AH12" si="46">U12&amp;V12&amp;W12&amp;X12&amp;Y12&amp;Z12&amp;AA12&amp;AB12&amp;AC12&amp;AD12&amp;AE12&amp;AF12&amp;AG12</f>
+        <v>this.RoomParticles.add(new int[] {19,962,1950,0,2600,500});</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>110</v>
+      </c>
+      <c r="B13">
+        <v>1820</v>
+      </c>
+      <c r="C13">
+        <v>500</v>
+      </c>
+      <c r="D13">
+        <f>2600-430</f>
+        <v>2170</v>
+      </c>
+      <c r="E13">
+        <f>500+350</f>
+        <v>850</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="H13" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>110</v>
+      </c>
+      <c r="K13">
+        <v>1820</v>
+      </c>
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="M13">
+        <v>2170</v>
+      </c>
+      <c r="N13">
+        <v>850</v>
+      </c>
+      <c r="O13">
+        <v>350</v>
+      </c>
+      <c r="P13">
+        <v>350</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="3"/>
+        <v>122500</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="4"/>
+        <v>362.34027449124471</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="U13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ref="V13:V20" si="47">J13</f>
+        <v>110</v>
+      </c>
+      <c r="W13" t="s">
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <f t="shared" ref="X13:X20" si="48">S13</f>
+        <v>363</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" ref="Z13:Z20" si="49">K13</f>
+        <v>1820</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ref="AB13:AB20" si="50">L13</f>
+        <v>500</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" ref="AD13:AD20" si="51">M13</f>
+        <v>2170</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" ref="AF13:AF20" si="52">N13</f>
+        <v>850</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH13" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {110,363,1820,500,2170,850});</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <f>1950-130</f>
+        <v>1820</v>
+      </c>
+      <c r="C14">
+        <v>130</v>
+      </c>
+      <c r="D14">
+        <v>1950</v>
+      </c>
+      <c r="E14">
+        <v>500</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="H14" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>111</v>
+      </c>
+      <c r="K14">
+        <v>1820</v>
+      </c>
+      <c r="L14">
+        <v>130</v>
+      </c>
+      <c r="M14">
+        <v>1950</v>
+      </c>
+      <c r="N14">
+        <v>500</v>
+      </c>
+      <c r="O14">
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <v>370</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="3"/>
+        <v>48100</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="4"/>
+        <v>142.27401798390915</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="5"/>
+        <v>143</v>
+      </c>
+      <c r="U14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="47"/>
+        <v>111</v>
+      </c>
+      <c r="W14" t="s">
+        <v>12</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="48"/>
+        <v>143</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="49"/>
+        <v>1820</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="50"/>
+        <v>130</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="51"/>
+        <v>1950</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="52"/>
+        <v>500</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {111,143,1820,130,1950,500});</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>112</v>
+      </c>
+      <c r="B15">
+        <v>1380</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1950</v>
+      </c>
+      <c r="E15">
+        <v>130</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>570</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="H15" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>112</v>
+      </c>
+      <c r="K15">
+        <v>1380</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>1950</v>
+      </c>
+      <c r="N15">
+        <v>130</v>
+      </c>
+      <c r="O15">
+        <v>570</v>
+      </c>
+      <c r="P15">
+        <v>130</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="3"/>
+        <v>74100</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="4"/>
+        <v>219.17889256980598</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="U15" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="47"/>
+        <v>112</v>
+      </c>
+      <c r="W15" t="s">
+        <v>12</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="48"/>
+        <v>220</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="49"/>
+        <v>1380</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="51"/>
+        <v>1950</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="52"/>
+        <v>130</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH15" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {112,220,1380,0,1950,130});</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>113</v>
+      </c>
+      <c r="B16">
+        <v>1010</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>B16+370</f>
+        <v>1380</v>
+      </c>
+      <c r="E16">
+        <v>270</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H16" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>113</v>
+      </c>
+      <c r="K16">
+        <v>1010</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1380</v>
+      </c>
+      <c r="N16">
+        <v>270</v>
+      </c>
+      <c r="O16">
+        <v>370</v>
+      </c>
+      <c r="P16">
+        <v>270</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="3"/>
+        <v>99900</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="4"/>
+        <v>295.49219119734977</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="5"/>
+        <v>296</v>
+      </c>
+      <c r="U16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="47"/>
+        <v>113</v>
+      </c>
+      <c r="W16" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="48"/>
+        <v>296</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="49"/>
+        <v>1010</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="51"/>
+        <v>1380</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF16">
+        <f t="shared" si="52"/>
+        <v>270</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH16" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {113,296,1010,0,1380,270});</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>114</v>
+      </c>
+      <c r="B17">
+        <v>580</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>B17+430</f>
+        <v>1010</v>
+      </c>
+      <c r="E17">
+        <v>270</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>430</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="H17" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>114</v>
+      </c>
+      <c r="K17">
+        <v>580</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1010</v>
+      </c>
+      <c r="N17">
+        <v>270</v>
+      </c>
+      <c r="O17">
+        <v>430</v>
+      </c>
+      <c r="P17">
+        <v>270</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="3"/>
+        <v>116100</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="4"/>
+        <v>343.40984382394703</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="5"/>
+        <v>344</v>
+      </c>
+      <c r="U17" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="47"/>
+        <v>114</v>
+      </c>
+      <c r="W17" t="s">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="48"/>
+        <v>344</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="49"/>
+        <v>580</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="51"/>
+        <v>1010</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF17">
+        <f t="shared" si="52"/>
+        <v>270</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {114,344,580,0,1010,270});</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>151</v>
+      </c>
+      <c r="B18">
+        <v>800</v>
+      </c>
+      <c r="C18">
+        <v>270</v>
+      </c>
+      <c r="D18">
+        <f>B18+210</f>
+        <v>1010</v>
+      </c>
+      <c r="E18">
+        <f>C18+420</f>
+        <v>690</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18" si="53">D18-B18</f>
+        <v>210</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18" si="54">E18-C18</f>
+        <v>420</v>
+      </c>
+      <c r="H18" t="b">
+        <f t="shared" ref="H18" si="55">B18&lt;D18</f>
+        <v>1</v>
+      </c>
+      <c r="I18" t="b">
+        <f t="shared" ref="I18" si="56">C18&lt;E18</f>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>151</v>
+      </c>
+      <c r="K18">
+        <v>800</v>
+      </c>
+      <c r="L18">
+        <v>270</v>
+      </c>
+      <c r="M18">
+        <v>1010</v>
+      </c>
+      <c r="N18">
+        <v>690</v>
+      </c>
+      <c r="O18">
+        <v>210</v>
+      </c>
+      <c r="P18">
+        <v>420</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ref="Q18" si="57">O18*P18</f>
+        <v>88200</v>
+      </c>
+      <c r="R18">
+        <f t="shared" ref="R18" si="58">Q18/$Q$22</f>
+        <v>260.88499763369617</v>
+      </c>
+      <c r="S18">
+        <f t="shared" ref="S18" si="59">ROUNDUP(R18,0)</f>
+        <v>261</v>
+      </c>
+      <c r="U18" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="47"/>
+        <v>151</v>
+      </c>
+      <c r="W18" t="s">
+        <v>12</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="48"/>
+        <v>261</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="49"/>
+        <v>800</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" si="50"/>
+        <v>270</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="51"/>
+        <v>1010</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF18">
+        <f t="shared" si="52"/>
+        <v>690</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH18" s="1" t="str">
+        <f t="shared" ref="AH18" si="60">U18&amp;V18&amp;W18&amp;X18&amp;Y18&amp;Z18&amp;AA18&amp;AB18&amp;AC18&amp;AD18&amp;AE18&amp;AF18&amp;AG18</f>
+        <v>this.RoomParticles.add(new int[] {151,261,800,270,1010,690});</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>440</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>580</v>
+      </c>
+      <c r="E19">
+        <v>520</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="H19" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>440</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>580</v>
+      </c>
+      <c r="N19">
+        <v>520</v>
+      </c>
+      <c r="O19">
+        <v>140</v>
+      </c>
+      <c r="P19">
+        <v>520</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>72800</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="4"/>
+        <v>215.33364884051113</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="5"/>
+        <v>216</v>
+      </c>
+      <c r="U19" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="47"/>
+        <v>15</v>
+      </c>
+      <c r="W19" t="s">
+        <v>12</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="48"/>
+        <v>216</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="49"/>
+        <v>440</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="51"/>
+        <v>580</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF19">
+        <f t="shared" si="52"/>
+        <v>520</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH19" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {15,216,440,0,580,520});</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>1010</v>
+      </c>
+      <c r="C20">
+        <v>270</v>
+      </c>
+      <c r="D20">
+        <f>B20+230</f>
+        <v>1240</v>
+      </c>
+      <c r="E20">
+        <f>C20+420</f>
+        <v>690</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ref="F20:G20" si="61">D20-B20</f>
+        <v>230</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="61"/>
+        <v>420</v>
+      </c>
+      <c r="H20" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>17</v>
+      </c>
+      <c r="K20">
+        <v>1010</v>
+      </c>
+      <c r="L20">
+        <v>270</v>
+      </c>
+      <c r="M20">
+        <v>1240</v>
+      </c>
+      <c r="N20">
+        <v>690</v>
+      </c>
+      <c r="O20">
+        <v>230</v>
+      </c>
+      <c r="P20">
+        <v>420</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="3"/>
+        <v>96600</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>285.73118788452439</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="5"/>
+        <v>286</v>
+      </c>
+      <c r="U20" t="s">
+        <v>14</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="47"/>
+        <v>17</v>
+      </c>
+      <c r="W20" t="s">
+        <v>12</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="48"/>
+        <v>286</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="49"/>
+        <v>1010</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="50"/>
+        <v>270</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="51"/>
+        <v>1240</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="52"/>
+        <v>690</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>15</v>
+      </c>
+      <c r="AH20" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>this.RoomParticles.add(new int[] {17,286,1010,270,1240,690});</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="P21" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21">
+        <f>SUM(Q3:Q20)</f>
+        <v>1690400</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>14.4-11.2</f>
+        <v>3.2000000000000011</v>
+      </c>
+      <c r="D22">
+        <f>2.3+3.7+5.2</f>
+        <v>11.2</v>
+      </c>
+      <c r="P22" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <f>Q21/Q23</f>
+        <v>338.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="P23" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23">
+        <v>5000</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="P24" t="s">
+        <v>11</v>
+      </c>
+      <c r="S24">
+        <f>SUM(S3:S20)</f>
+        <v>5008</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH26" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH28" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH30" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH32" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH34" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH35" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH36" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH37" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH39" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="34:35" x14ac:dyDescent="0.2">
+      <c r="AH40" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>